--- a/TP1/tablas/10.xlsx
+++ b/TP1/tablas/10.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>110001010100001010100101001100</t>
+          <t>111010100111001111000000111101</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5937444926742758</v>
+        <v>0.8387423222178733</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002616227012542841</v>
+        <v>0.03472310536680396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2172810288897296</v>
+        <v>0.3853178340835093</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111110101011000000010000001010</t>
+          <t>111010100111001111000000111101</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9589286251029129</v>
+        <v>0.8387423222178733</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2709704040628703</v>
+        <v>0.02955388167217791</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5645610134723195</v>
+        <v>0.682852610050532</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111110101011001010100101001100</t>
+          <t>111010100111001111001000100110</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387431563855785</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5936837742091339</v>
+        <v>0.824493532946885</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7763382263054709</v>
+        <v>0.8373164731692107</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111110101011001010100101001100</t>
+          <t>111010100111001111001000100110</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387431563855785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5936837742091339</v>
+        <v>0.838731841422177</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9224504400995917</v>
+        <v>0.838740392892275</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111110101011001010100101001100</t>
+          <t>111010100111001111001000111101</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387431956204705</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387422829830017</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387429895520395</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111110101011001010100101001100</t>
+          <t>111010100111001111001000111101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387431956204705</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387422829830017</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387430886627669</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111110101011001010100101001100</t>
+          <t>111010100111001111001000111101</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387431956204705</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387431563855785</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387431877734922</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111110101011001010100101001100</t>
+          <t>111010100111001111001000111101</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387431956204705</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8244943988989016</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8373183159483135</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111110101011001010100101011100</t>
+          <t>111010110111001111001000111101</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9590058217060744</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9590057925210053</v>
+        <v>0.8387431956204705</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9590057954395121</v>
+        <v>0.8394602130932762</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111110101011001010100101011100</t>
+          <t>111010110111001111001000111101</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9590058217060744</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9551842909849073</v>
+        <v>0.8386872987710199</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9586236511229161</v>
+        <v>0.842322693299554</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>111110101011001010100101011100</t>
+          <t>111010110111001111001000111101</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9590058217060744</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9551842618580458</v>
+        <v>0.4485456253674628</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9582415038936342</v>
+        <v>0.8054595783776156</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>111110101011001011100101011100</t>
+          <t>111010110111001111001000111101</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="E13" t="n">
-        <v>0.840501018323274</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9471560826700129</v>
+        <v>0.8459133703485279</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>111110101011001011100101011100</t>
+          <t>111010110111001111001000111101</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7298152326730294</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9242392682853072</v>
+        <v>0.8459133703485279</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>111110101011001011100101011100</t>
+          <t>111010110111001111001000111101</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9590058217060744</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9590117900643775</v>
+        <v>0.8459133703485279</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>111110101011001011100101011100</t>
+          <t>111010110111001111001000111101</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="E16" t="n">
-        <v>0.959013263913214</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9590132901798786</v>
+        <v>0.8459133703485279</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>111110101011001011100101011100</t>
+          <t>111010110111001111001100111101</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.845913808912642</v>
       </c>
       <c r="E17" t="n">
-        <v>0.959013263913214</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9590132901798786</v>
+        <v>0.8459134142049394</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>111110101011001011100101011100</t>
+          <t>111010110111001111001100111101</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.845913808912642</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="F18" t="n">
-        <v>0.959013293098397</v>
+        <v>0.8459135019177622</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>111110101011001011100101011100</t>
+          <t>111010110111001111001100111101</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.845913808912642</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.8459133703485278</v>
       </c>
       <c r="F19" t="n">
-        <v>0.959013293098397</v>
+        <v>0.8459137650562306</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111110101011001011100101011100</t>
+          <t>111011110111001111001100111101</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.8748996910572698</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.845913808912642</v>
       </c>
       <c r="F20" t="n">
-        <v>0.959013293098397</v>
+        <v>0.8488123971271048</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111110101011001011100101011100</t>
+          <t>111011110111001111001100111101</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.8748996910572698</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9590132930983968</v>
+        <v>0.845913808912642</v>
       </c>
       <c r="F21" t="n">
-        <v>0.959013293098397</v>
+        <v>0.8633053381994188</v>
       </c>
     </row>
   </sheetData>
